--- a/5_Snowballing/Forward_Snowballing_2.xlsx
+++ b/5_Snowballing/Forward_Snowballing_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C238A2-128B-5E4B-88FC-40E8F42956F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81A8B57-8786-544A-BFB1-162C572BC204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="660" windowWidth="23960" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1025">
   <si>
     <t>ID</t>
   </si>
@@ -3096,6 +3096,21 @@
   </si>
   <si>
     <t>To survive in competitive marketplaces, most organizations have adopted agile methodologies to facilitate continuous integration and faster application delivery and rely on regression testing during application development to validate the quality and reliability of the software after changes have been made. Consequently, for large projects with cost and time constraints, it is extremely difficult to determine which test cases to run at the end of each release. In this paper, a test case prioritization and selection approach is proposed to improve the quality of releases. From existing literature, we analyzed prevailing problems and proposed solution relevant to regression testing in agile practices. The proposed approach is based on two phases. First, test cases are prioritized by clustering those test cases that frequently change. In case of a tie, test cases are prioritized based on their respective failure frequencies and coverage criteria. Second, test cases with a higher frequency of failure or coverage criteria are selected. The proposed technique was validated by an empirical study on three industrial subjects. The results show that the method successfully selects an optimal test suite and increases the fault detection rate (i.e., more than 90% in the case of proposed technique and less than 50% in other techniques), which reduces the number of irrelevant test cases and avoids detecting duplicate faults. The results of evaluation metrics illustrate that the proposed technique significantly outperform (i.e., between 91 and 97%) as compared to other existing regression testing techniques (i.e., between 52 and 68%). Therefore, our model enhances the test case prioritization and selection with the ability for earlier and high fault detection. Thus, pruning out irrelevant test cases and redundant faults and enhancing the regression testing process for agile applications.</t>
+  </si>
+  <si>
+    <t>no book</t>
+  </si>
+  <si>
+    <t>Test case selection for all-uses criterion-based regression testing of composite service</t>
+  </si>
+  <si>
+    <t>S Ji, B Li, P Zhang</t>
+  </si>
+  <si>
+    <t>IEEE Access, 2019</t>
+  </si>
+  <si>
+    <t>Composite services evolve for various reasons. Test case selection in the regression testing is an effective technique to ensure the correctness of modified versions meanwhile to reduce the cost of testing. However, few work has studied the test case selection problem based on the data flow testing criteria. In addition, there are three observable kinds of changes during the evolution, including Process change, Binding change and Interface change, which all bring impact to the data flow. To address these issues, a test case selection approach is proposed for regression testing of BPEL (Business Process Execution Language) composite service where all-uses criterion is satisfied and all the three change types are involved. BPEL composite service is modeled with a two-level model in which XCFG (eXtended Control Flow Graph) describes the behavior of BPEL process in the first level and WSDM (Web Service Description Model) depicts the interface information of composite service and partner services in the second level. Change impact analysis is performed to identify the affected definition-use pairs by comparing and analyzing two-level models of the baseline and evolved versions. And testing paths are generated to cover the affected definition-use pairs and select test cases based on the path condition analysis. Empirical result shows that the proposed approach is effective.</t>
   </si>
 </sst>
 </file>
@@ -3479,10 +3494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO127"/>
+  <dimension ref="A1:AO128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="AM127" sqref="AM127"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8325,7 +8340,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="113" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>961</v>
       </c>
@@ -8345,7 +8360,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="114" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>965</v>
       </c>
@@ -8365,7 +8380,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="115" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>969</v>
       </c>
@@ -8385,7 +8400,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="116" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>974</v>
       </c>
@@ -8405,7 +8420,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="117" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>977</v>
       </c>
@@ -8425,7 +8440,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="118" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>982</v>
       </c>
@@ -8445,7 +8460,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="119" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>985</v>
       </c>
@@ -8465,7 +8480,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="120" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>990</v>
       </c>
@@ -8485,7 +8500,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="121" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>994</v>
       </c>
@@ -8505,7 +8520,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="122" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>996</v>
       </c>
@@ -8525,7 +8540,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="123" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>1000</v>
       </c>
@@ -8545,7 +8560,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="124" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>1004</v>
       </c>
@@ -8565,7 +8580,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="125" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>1010</v>
       </c>
@@ -8585,7 +8600,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="126" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>1014</v>
       </c>
@@ -8605,7 +8620,10 @@
         <v>953</v>
       </c>
     </row>
-    <row r="127" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>1020</v>
+      </c>
       <c r="C127" t="s">
         <v>1017</v>
       </c>
@@ -8622,6 +8640,26 @@
         <v>1019</v>
       </c>
       <c r="AN127" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="128" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F128">
+        <v>2019</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AN128" t="s">
         <v>953</v>
       </c>
     </row>

--- a/5_Snowballing/Forward_Snowballing_2.xlsx
+++ b/5_Snowballing/Forward_Snowballing_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81A8B57-8786-544A-BFB1-162C572BC204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6695E08A-E3FD-D841-8B2D-B40ADB1C0212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="660" windowWidth="23960" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1057">
   <si>
     <t>ID</t>
   </si>
@@ -3111,6 +3111,102 @@
   </si>
   <si>
     <t>Composite services evolve for various reasons. Test case selection in the regression testing is an effective technique to ensure the correctness of modified versions meanwhile to reduce the cost of testing. However, few work has studied the test case selection problem based on the data flow testing criteria. In addition, there are three observable kinds of changes during the evolution, including Process change, Binding change and Interface change, which all bring impact to the data flow. To address these issues, a test case selection approach is proposed for regression testing of BPEL (Business Process Execution Language) composite service where all-uses criterion is satisfied and all the three change types are involved. BPEL composite service is modeled with a two-level model in which XCFG (eXtended Control Flow Graph) describes the behavior of BPEL process in the first level and WSDM (Web Service Description Model) depicts the interface information of composite service and partner services in the second level. Change impact analysis is performed to identify the affected definition-use pairs by comparing and analyzing two-level models of the baseline and evolved versions. And testing paths are generated to cover the affected definition-use pairs and select test cases based on the path condition analysis. Empirical result shows that the proposed approach is effective.</t>
+  </si>
+  <si>
+    <t>Analysis of MORTO:Multi-objective Regression test optimization</t>
+  </si>
+  <si>
+    <t>Whenever a change is done in software, regression testing is done to check that a recent change in code has not created any unwanted defects in the system. As size of regression test suite is very large, optimization algorithms help in selecting, minimizing and prioritizing test suites. Main aim is maximize fault detection ability with less number of test cases. Optimization techniques of various types are available but Multiobjective algorithms are the best choice to use as testing is dependent on many adequacy criteria or surrogates. In this paper, authors have carried out study on research papers where multi-objective algorithms are used in regression testing. Then comparison of performance of multi-objective algorithms is done to identify the best suitable multi-objective algorithm for regression testing.</t>
+  </si>
+  <si>
+    <t>Neha Gupta; Arun Sharma; Manoj Kumar Pachariya</t>
+  </si>
+  <si>
+    <t>2019 International Conference on Issues and Challenges in Intelligent Computing Techniques (ICICT)</t>
+  </si>
+  <si>
+    <t>Fault-Based Regression Test Case Prioritization</t>
+  </si>
+  <si>
+    <t>S Biswas, A Bansal, P Mitra, R Mall</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Reliability, 2022</t>
+  </si>
+  <si>
+    <t>We propose a set of four novel fault-based regression test case prioritization (TCP) techniques for object-oriented programs. We seed bugs into a program to create large number of mutants. We execute each mutant with the originally designed test suite. From this, we record the number of mutants for which a test case fails. Based on this, we prioritize the test cases using four base fault-based prioritization techniques that we have proposed. Finally, we combine the results of our four base prioritizers using three ensemble methods. We have conducted experimental studies to determine the effectiveness of our proposed approaches. Our experimental results show that our proposed TCP techniques exhibit superior performance over related techniques.</t>
+  </si>
+  <si>
+    <t>Test case prioritization and reduction using hybrid quantum-behaved particle swarm optimization</t>
+  </si>
+  <si>
+    <t>A Bajaj, A Abraham</t>
+  </si>
+  <si>
+    <t>2022 IEEE Congress on Evolutionary Computation (CEC), 2022</t>
+  </si>
+  <si>
+    <t>Regression testing is an integral part of the software evolution and maintenance phase as it ensures that the modified software is working correctly after any upgrades. Test case prioritization and reduction minimize cost and effort needed for retesting by scheduling critical test cases before the less critical ones and removing redundant test cases. The criticality and redundancy of the test cases depend on several testing criteria. This paper empirically analyzed the effect of different testing criteria like code and fault coverage on the techniques' performance. This paper proposed a discrete Quantum-behaved particle swarm optimization (QPSO) for enhancing efficiency of test case prioritization. The algorithm is improved by replacing the random distribution with Gaussian probability to escape from the local optima. The evolution stagnation issue is further resolved by hybridizing it with genetic algorithm (QPSO-GA). In addition to prioritizing the test cases, the algorithm also reduces the test suite size through the test suite reduction approach. The experiments are conducted on different versions of three pro-grams from the open-source software infrastructure repository. The performance is compared with the average percentage of statement coverage, fault detection, and their combinations with the cost. Consequently, suite reduction, fault detection capability losses, and coverage loss percentage are also drawn for test suite reduction. The proposed algorithms outperformed the random search, ant colony optimization, differential evolution, GA, PSO, and adaptive PSO for all the evaluation metrics.</t>
+  </si>
+  <si>
+    <t>Test case prioritization, selection, and reduction using improved quantum-behaved particle swarm optimization</t>
+  </si>
+  <si>
+    <t>A Bajaj, A Abraham, S Ratnoo, LA Gabralla</t>
+  </si>
+  <si>
+    <t>Sensors, 2022</t>
+  </si>
+  <si>
+    <t>The emerging areas of IoT and sensor networks bring lots of software applications on a daily basis. To keep up with the ever-changing expectations of clients and the competitive market, the software must be updated. The changes may cause unintended consequences, necessitating retesting, i.e., regression testing, before being released. The efficiency and efficacy of regression testing techniques can be improved with the use of optimization approaches. This paper proposes an improved quantum-behaved particle swarm optimization approach for regression testing. The algorithm is improved by employing a fix-up mechanism to perform perturbation for the combinatorial TCP problem. Second, the dynamic contraction-expansion coefficient is used to accelerate the convergence. It is followed by an adaptive test case selection strategy to choose the modification-revealing test cases. Finally, the superfluous test cases are removed. Furthermore, the algorithm’s robustness is analyzed for fault as well as statement coverage. The empirical results reveal that the proposed algorithm performs better than the Genetic Algorithm, Bat Algorithm, Grey Wolf Optimization, Particle Swarm Optimization and its variants for prioritizing test cases. The findings show that inclusivity, test selection percentage and cost reduction percentages are higher in the case of fault coverage compared to statement coverage but at the cost of high fault detection loss (approx. 7%) at the test case reduction stage.</t>
+  </si>
+  <si>
+    <t>Test case prioritization using transfer learning in continuous integration environments</t>
+  </si>
+  <si>
+    <t>R Mamata, A Azim, R Liscano, K Smith, YK Chang, G Seferi, Q Tauseef</t>
+  </si>
+  <si>
+    <t>The continuous Integration (CI) process runs a large set of automated test cases to verify software builds. The testing phase in the CI systems has timing constraints to ensure software quality without significantly delaying the CI builds. Therefore, CI requires efficient testing techniques such as Test Case Prioritization (TCP) to run faulty test cases with priority. Recent research studies on TCP utilize different Machine Learning (ML) methods to adopt the dynamic and complex nature of CI. However, the performance of ML for TCP may decrease for a low volume of data and less failure rate, whereas using existing data with similar patterns from other domains can be valuable. We formulate this as a transfer learning (TL) problem. TL has proven to be beneficial for many real-world applications where source domains have plenty of data, but the target domains have a scarcity of it. Therefore, this research investigates leveraging the benefit of transfer learning for test case prioritization (TCP). However, only some industrial CI datasets are publicly available due to data privacy protection regulations. In such cases, model-based transfer learning is a potential solution to share knowledge among different projects without revealing data to other stakeholders. This paper applies TransBoost, a tree-kernel-based TL algorithm, to evaluate the TL approach for 24 study subjects and identify potential source datasets.</t>
+  </si>
+  <si>
+    <t>2023 IEEE/ACM International Conference on Automation of Software Test (AST)</t>
+  </si>
+  <si>
+    <t>Comparing and combining analysis-based and learning-based regression test selection</t>
+  </si>
+  <si>
+    <t>J Zhang, Y Liu, M Gligoric, O Legunsen, A Shi</t>
+  </si>
+  <si>
+    <t>Regression testing---rerunning tests on each code version to detect newly-broken functionality---is important and widely practiced. But, regression testing is costly due to the large number of tests and the high frequency of code changes. Regression test selection (RTS) optimizes regression testing by only rerunning a subset of tests that can be affected by changes. Researchers showed that RTS based on program analysis can save substantial testing time for (medium-sized) open-source projects. Practitioners also showed that RTS based on machine learning (ML) works well on very large code repositories, e.g., in Facebook's monorepository. We combine analysis-based RTS and ML-based RTS by using the latter to choose a subset of tests selected by the former. We first train several novel ML models to learn the impact of code changes on test outcomes using a training dataset that we obtain via mutation analysis. Then, we evaluate the benefits of combining ML models with analysis-based RTS on 10 projects, compared with using each technique alone. Combining ML-based RTS with two analysis-based RTS techniques-Ekstazi and STARTS-selects 25.34% and 21.44% fewer tests, respectively.</t>
+  </si>
+  <si>
+    <t>AST '22: Proceedings of the 3rd ACM/IEEE International Conference on Automation of Software Test</t>
+  </si>
+  <si>
+    <t>Test case prioritization using test case diversification and fault-proneness estimations</t>
+  </si>
+  <si>
+    <t>M Mahdieh, SH Mirian-Hosseinabadi, M Mahdieh</t>
+  </si>
+  <si>
+    <t>Regression testing activities greatly reduce the risk of faulty software release. However, the size of the test suites grows throughout the development process, resulting in time-consuming execution of the test suite and delayed feedback to the software development team. This has urged the need for approaches such as test case prioritization (TCP) and test-suite reduction to reach better results in case of limited resources. In this regard, proposing approaches that use auxiliary sources of data such as bug history can be interesting. We aim to propose an approach for TCP that takes into account test case coverage data, bug history, and test case diversification. To evaluate this approach we study its performance on real-world open-source projects. The bug history is used to estimate the fault-proneness of source code areas. The diversification of test cases is preserved by incorporating fault-proneness on a clustering-based approach scheme. The proposed methods are evaluated on datasets collected from the development history of five real-world projects including 357 versions in total. The experiments show that the proposed methods are superior to coverage-based TCP methods. The proposed approach shows that improvement of coverage-based and fault-proneness-based methods is possible by using a combination of diversification and fault-proneness incorporation.</t>
+  </si>
+  <si>
+    <t>Automated Software Engineering, 2022</t>
+  </si>
+  <si>
+    <t>A multi-goal particle swarm optimizer for test case prioritization</t>
+  </si>
+  <si>
+    <t>M Nazir, A Mehmood, W Aslam, Y Park, GS Choi, I Ashraf</t>
+  </si>
+  <si>
+    <t>IEEE Access, 2023</t>
+  </si>
+  <si>
+    <t>Regression testing is carried out to test the updated supply code within the constraints of time and sources. Since it is very difficult to run all the updated source code every time, test case prioritization is needed to decrease the fee of regression testing. Various methodologies including extensions of white box and black box prioritization, have been presented considering the prioritization of test instances. In this context, the employment of particle swarm optimization (PSO) is usually recommended for test case prioritization. Single test case prioritization focuses to order test cases to maximize objectives like fault detection rate, execution time, etc. Regression testing for single-objective test suite prioritization can become challenging due to its longer execution time. However, test case prioritization for multi-objective functions is a complex and time-consuming task. A check suite may be organized in a certain order by an appropriate technique, subsequently permitting the detection of flaws as early as possible. Multi-goal particle swarm optimization (MOPSO) is used for case prioritization in regression testing. The purpose of MOPSO in this context is to organize the test suite in a specific order that maximizes fault coverage, provides sufficient coverage of test cases, and minimizes execution time. This study proposes an approach based on MOPSO that focuses on maximum fault coverage, most circumstance insurance, and minimal execution time. Experiments are performed using the average percentage of faults detected (APFD) to evaluate its performance. Performance analysis using APFD consisting of no order, opposite order, and random order indicates that the MOPSO surpasses all the previous techniques and obtains an 85% fault coverage. Moreover, MOPSO is better in terms of execution time, fault detection fee, and early detection capabilities.</t>
   </si>
 </sst>
 </file>
@@ -3494,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO128"/>
+  <dimension ref="A1:AO136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8660,6 +8756,166 @@
         <v>1024</v>
       </c>
       <c r="AN128" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="129" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F129">
+        <v>2019</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AN129" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="130" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F130">
+        <v>2022</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AN130" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="131" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F131">
+        <v>2022</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AN131" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="132" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F132">
+        <v>2022</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AN132" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="133" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F133">
+        <v>2023</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AN133" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="134" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F134">
+        <v>2022</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AN134" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="135" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F135">
+        <v>2022</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AN135" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="136" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F136">
+        <v>2023</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AN136" t="s">
         <v>953</v>
       </c>
     </row>

--- a/5_Snowballing/Forward_Snowballing_2.xlsx
+++ b/5_Snowballing/Forward_Snowballing_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6695E08A-E3FD-D841-8B2D-B40ADB1C0212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337308CD-3066-0542-8621-5825AAB67DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="660" windowWidth="23960" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28100" yWindow="5460" windowWidth="23960" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1080">
   <si>
     <t>ID</t>
   </si>
@@ -3207,6 +3207,75 @@
   </si>
   <si>
     <t>Regression testing is carried out to test the updated supply code within the constraints of time and sources. Since it is very difficult to run all the updated source code every time, test case prioritization is needed to decrease the fee of regression testing. Various methodologies including extensions of white box and black box prioritization, have been presented considering the prioritization of test instances. In this context, the employment of particle swarm optimization (PSO) is usually recommended for test case prioritization. Single test case prioritization focuses to order test cases to maximize objectives like fault detection rate, execution time, etc. Regression testing for single-objective test suite prioritization can become challenging due to its longer execution time. However, test case prioritization for multi-objective functions is a complex and time-consuming task. A check suite may be organized in a certain order by an appropriate technique, subsequently permitting the detection of flaws as early as possible. Multi-goal particle swarm optimization (MOPSO) is used for case prioritization in regression testing. The purpose of MOPSO in this context is to organize the test suite in a specific order that maximizes fault coverage, provides sufficient coverage of test cases, and minimizes execution time. This study proposes an approach based on MOPSO that focuses on maximum fault coverage, most circumstance insurance, and minimal execution time. Experiments are performed using the average percentage of faults detected (APFD) to evaluate its performance. Performance analysis using APFD consisting of no order, opposite order, and random order indicates that the MOPSO surpasses all the previous techniques and obtains an 85% fault coverage. Moreover, MOPSO is better in terms of execution time, fault detection fee, and early detection capabilities.</t>
+  </si>
+  <si>
+    <t>Severity-aware prioritization of system-level regression tests in automotive software</t>
+  </si>
+  <si>
+    <t>R Wuersching, D Elsner, F Leinen, A Pretschner, G Grueneissl, T Neumeyr, T Vosseler</t>
+  </si>
+  <si>
+    <t>In automotive software engineering, system-level regression testing is crucial to ensure proper integration of often- times safety-critical components. Due to the inherent complexity of such systems and components, testing is commonly performed manually and in a black-box manner, which is particularly costly and leads to slow feedback cycles between testers and developers. Regression Test Prioritization (RTP) aims to reduce feedback time by ordering tests to reveal faults earlier during the testing process. However, most prior RTP research does not incorporate varying fault severity, which must be taken into account when evaluating and designing appropriate RTP approaches for safety-critical automotive software systems. In this work, we present a case study at our industry partner MAN, a leading international provider of commercial vehicles. We design and instantiate a domain-specific, severity-aware RTP assessment model and comparatively assess state-of-the-art RTP approaches. Our results indicate that simple and partly well- known heuristics based on test history and test costs have the best cost-effectiveness, achieving between 85% and 90% of the maximum possible feedback time reduction. On the other hand, search-based and machine-learning-based RTP approaches do not perform better, especially if available test history is sparse.</t>
+  </si>
+  <si>
+    <t>2023 IEEE Conference on Software Testing, Verification and Validation (ICST)</t>
+  </si>
+  <si>
+    <t>Aga: An accelerated greedy additional algorithm for test case prioritization</t>
+  </si>
+  <si>
+    <t>In recent years, many test case prioritization (TCP) techniques have been proposed to speed up the process of fault detection. However, little work has taken the efficiency problem of these techniques into account. In this paper, we target the Greedy Additional (GA) algorithm, which has been widely recognized to be effective but less efficient, and try to improve its efficiency while preserving effectiveness. In our Accelerated GA (AGA) algorithm, we use some extra data structures to reduce redundant data accesses in the GA algorithm and thus the time complexity is reduced from  to  when , where  is the number of test cases,  is the number of program elements, and is the iteration number. Moreover, we observe the impact of iteration numbers on prioritization efficiency on our dataset and propose to use a specific iteration number in the AGA algorithm to further improve the efficiency. We conducted experiments on 55 open-source subjects. In particular, we implemented each TCP algorithm with two kinds of widely-used input formats, adjacency matrix and adjacency list. Since a TCP algorithm with adjacency matrix is less efficient than the algorithm with adjacency list, the result analysis is mainly conducted based on TCP algorithms with adjacency list. The results show that AGA achieves 5.95X speedup ratio over GA on average, while it achieves the same average effectiveness as GA in terms of Average Percentage of Fault Detected (APFD). Moreover, we conducted an industrial case study on 22 subjects, collected from Baidu, and find that the average speedup ratio of AGA over GA is 44.27X, which indicates the practical usage of AGA in real-world scenarios.</t>
+  </si>
+  <si>
+    <t>F Li, J Zhou, Y Li, D Hao, L Zhang</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Software Engineering, 2021</t>
+  </si>
+  <si>
+    <t>On the search for industry-relevant regression testing research</t>
+  </si>
+  <si>
+    <t>Empirical Software Engineering, 2019</t>
+  </si>
+  <si>
+    <t>Regression testing is a means to assure that a change in the software, or its execution environment, does not introduce new defects. It involves the expensive undertaking of rerunning test cases. Several techniques have been proposed to reduce the number of test cases to execute in regression testing, however, there is no research on how to assess industrial relevance and applicability of such techniques. We conducted a systematic literature review with the following two goals: firstly, to enable researchers to design and present regression testing research with a focus on industrial relevance and applicability and secondly, to facilitate the industrial adoption of such research by addressing the attributes of concern from the practitioners’ perspective. Using a reference-based search approach, we identified 1068 papers on regression testing. We then reduced the scope to only include papers with explicit discussions about relevance and applicability (i.e. mainly studies involving industrial stakeholders). Uniquely in this literature review, practitioners were consulted at several steps to increase the likelihood of achieving our aim of identifying factors important for relevance and applicability. We have summarised the results of these consultations and an analysis of the literature in three taxonomies, which capture aspects of industrial-relevance regarding the regression testing techniques. Based on these taxonomies, we mapped 38 papers reporting the evaluation of 26 regression testing techniques in industrial settings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauman bin Ali, Emelie Engström, Masoumeh Taromirad, Mohammad Reza Mousavi, Nasir Mehmood Minhas, Daniel Helgesson, Sebastian Kunze &amp; Mahsa Varshosaz </t>
+  </si>
+  <si>
+    <t>Application of the law of minimum and dissimilarity analysis to Regression Test Case Prioritization</t>
+  </si>
+  <si>
+    <t>E Ufuktepe, T Tuglular</t>
+  </si>
+  <si>
+    <t>Regression testing is one of the most expensive processes in testing. Prioritizing test cases in regression testing is critical for the goal of detecting the faults sooner within a large set of test cases. We propose a test case prioritization (TCP) technique for regression testing called LoM-Score inspired by the Law of Minimum (LoM) from biology. This technique calculates the impact probabilities of methods calculated by change impact analysis with forward slicing and orders test cases according to LoM. However, this ordering doesn’t consider the possibility that consecutive test cases may be covering the same methods repeatedly. Thereby, such ordering can delay the time of revealing faults that exist in other methods. To solve this problem, we enhance the LoM-Score TCP technique with an adaptive approach, namely with a dissimilarity-based coordinate analysis approach. The dissimilarity-based coordinate analysis uses Jaccard Similarity for calculating the similarity coefficients between test cases in terms of covered methods and the enhanced technique called Dissimilarity-LoM-Score (Dis-LoM-Score) applies a penalty with respective on the ordered test cases. We performed our case study on 10 open-source Java projects from Defects4J, which is a dataset of real bugs and an infrastructure for controlled experiments provided for software engineering researchers. Then, we hand-seeded multiple mutants generated by Major, which is a mutation testing tool. Then we compared our TCP techniques LoM-Score and Dis-LoM-Score with the four traditional TCP techniques based on their Average Percentage of Faults Detected (APFD) results.</t>
+  </si>
+  <si>
+    <t>Regression test optimization and prioritization using Honey Bee optimization algorithm with fuzzy rule base</t>
+  </si>
+  <si>
+    <t>Regression testing is a maintenance level activity performed on a modified program to instill confidence in the software’s reliability. Prioritization of test case arranges the regression test suite to detect the faults earlier in the testing process. The test cases necessary for validating the recent changes and finding the maximum faults in minimum time are selected. In this manuscript, an optimization algorithm (Bee Algorithm) based on the intelligent foraging behavior of honey bee swarm has been proposed that can enhance the rate of fault detection in test case prioritization. The bee algorithm, along with the fuzzy rule base, reduces the test cases’ volume by selecting the test cases from the pre-existing test suite. The proposed algorithm developed for enhancing the fault detection rate in minimum time is inspired by the behavior of two types of worker bees, namely scout bees and forager bees. These worker bees are responsible for the maintenance, progress, and growth of the colony. The proposed approach is implemented on two projects. The prioritization result is quantified by using the average percentage of fault detection (APFD) metric. Compared with other existing prioritization techniques like no prioritization, reverse prioritization, random prioritization, and previous work, the proposed algorithm outperforms all in fault detection rate. The effectiveness of the proposed algorithm is represented by using the APFD graphs and charts.</t>
+  </si>
+  <si>
+    <t>S Nayak, C Kumar, S Tripathi, N Mohanty, V Baral</t>
+  </si>
+  <si>
+    <t>Soft Computing, 2021</t>
+  </si>
+  <si>
+    <t>Hansie: Hybrid and consensus regression test prioritization</t>
+  </si>
+  <si>
+    <t>S Mondal, R Nasre</t>
+  </si>
+  <si>
+    <t>Journal of Systems and Software, 2021</t>
+  </si>
+  <si>
+    <t>Traditionally, given a test-suite and the underlying system-under-test, existing test-case prioritization heuristics report a permutation of the original test-suite that is seemingly best according to their criteria. However, we observe that a single heuristic does not perform optimally in all possible scenarios, given the diverse nature of software and its changes. Hence, multiple individual heuristics exhibit effectiveness differently. Interestingly, together, the heuristics bear the potential of improving the overall regression test selection across scenarios. In this paper, we pose the test-case prioritization as a rank aggregation problem from social choice theory. Our solution approach, named Hansie, is two-flavored: one involving priority-aware hybridization, and the other involving priority-blind computation of a consensus ordering from individual prioritizations. To speed-up test-execution, Hansie executes the aggregated test-case orderings in a parallel multi-processed manner leveraging regular windows in the absence of ties, and irregular windows in the presence of ties. We show the benefit of test-execution after prioritization and introduce a cost-cognizant metric (EPL) for quantifying overall timeline latency due to load-imbalance arising from uniform or non-uniform parallelization windows. We evaluate Hansie on 20 open-source subjects totaling 287,530 lines of source code, 69,305 test-cases, and with parallelization support of up to 40 logical CPUs.</t>
   </si>
 </sst>
 </file>
@@ -3590,10 +3659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO136"/>
+  <dimension ref="A1:AO142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="Z124" workbookViewId="0">
+      <selection activeCell="AF146" sqref="AF146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8916,6 +8985,126 @@
         <v>1056</v>
       </c>
       <c r="AN136" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="137" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F137">
+        <v>2023</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AN137" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="138" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F138">
+        <v>2021</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AN138" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="139" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F139">
+        <v>2019</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AN139" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="140" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F140">
+        <v>2023</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AN140" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="141" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F141">
+        <v>2021</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AN141" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="142" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F142">
+        <v>2021</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AN142" t="s">
         <v>953</v>
       </c>
     </row>

--- a/5_Snowballing/Forward_Snowballing_2.xlsx
+++ b/5_Snowballing/Forward_Snowballing_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337308CD-3066-0542-8621-5825AAB67DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A51BC3-2001-A748-A679-D16E0EC270B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28100" yWindow="5460" windowWidth="23960" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1091">
   <si>
     <t>ID</t>
   </si>
@@ -3276,6 +3276,39 @@
   </si>
   <si>
     <t>Traditionally, given a test-suite and the underlying system-under-test, existing test-case prioritization heuristics report a permutation of the original test-suite that is seemingly best according to their criteria. However, we observe that a single heuristic does not perform optimally in all possible scenarios, given the diverse nature of software and its changes. Hence, multiple individual heuristics exhibit effectiveness differently. Interestingly, together, the heuristics bear the potential of improving the overall regression test selection across scenarios. In this paper, we pose the test-case prioritization as a rank aggregation problem from social choice theory. Our solution approach, named Hansie, is two-flavored: one involving priority-aware hybridization, and the other involving priority-blind computation of a consensus ordering from individual prioritizations. To speed-up test-execution, Hansie executes the aggregated test-case orderings in a parallel multi-processed manner leveraging regular windows in the absence of ties, and irregular windows in the presence of ties. We show the benefit of test-execution after prioritization and introduce a cost-cognizant metric (EPL) for quantifying overall timeline latency due to load-imbalance arising from uniform or non-uniform parallelization windows. We evaluate Hansie on 20 open-source subjects totaling 287,530 lines of source code, 69,305 test-cases, and with parallelization support of up to 40 logical CPUs.</t>
+  </si>
+  <si>
+    <t>Analytic hierarchy process-based regression test case prioritization technique enhancing the fault detection rate</t>
+  </si>
+  <si>
+    <t>Soft Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soumen Nayak, Chiranjeev Kumar &amp; Sachin Tripathi </t>
+  </si>
+  <si>
+    <t>Regression testing is a testing method conducted to ensure that improvements do not affect the software’s current behavior. Test cases play a significant role in software testing activities since it detects faults in the software. The selection of test cases for execution based on the priority is a considerable decision-making step since testing needs to be carried out with limited computing resources like cost, effort, and time. Prioritized selection of test cases involves considering specific test case parameters or criteria; prioritizing test cases can be conceived as a multi-criteria decision-making problem. In this paper, using the Analytic Hierarchy Process (AHP) method, we suggest an approach for prioritizing the selection of the test cases. AHP provides a rational framework for structuring a decision-making problem. It is used to determine the priority of a set of criteria and to calculate the consistency ratio of those criteria using pair-wise comparisons of various measures. Using a new priority regression test algorithm proposed in this study, regression test prioritization is transformed into a multi-criteria decision-making problem. The suggested strategy has a higher Average Percentage of Faults Detected (APFD) value when many determinants are taken into account. The experimental results indicate that our proposed prioritization approach would improve the probability that faults will be detected early and enhance performance compared to other prioritization strategies.</t>
+  </si>
+  <si>
+    <t>Recent Trends in Regression Testing: Modeling and Analyzing the Critiques in Selection, Optimization, and Prioritization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raja Marappan &amp; Saraswatikaniga Raja </t>
+  </si>
+  <si>
+    <t>Nowadays, the software industry uses soft computing techniques to perform various tests and research to keep the software of better quality for customers or end users. Regression testing is needed to gain confidential insight into the software so that its performance is not affected. This testing is executed after updating the source code to ensure no new errors will be reported from the updates. As the software evolves, the test suites also increase in size, and hence, the computational cost is increased for the test suites execution. This research analyzes the recent trends in regression testing as different methods are developed to optimize the test suite using selection, minimization, and prioritization. The test case selection determines the suitable test cases for the necessary updates. Test suite optimization eliminates unnecessary or redundant test cases and reduces the total runs of test cases. Sequencing the test cases in an order is necessary to optimize the early detection of faults. This research analyzes the modeling and critiques in selection, minimization, and prioritization of recent techniques.</t>
+  </si>
+  <si>
+    <t>A Detection-Based Multi-Objective Test Case Selection Algorithm to Improve Time and Efficiency in Regression Testing</t>
+  </si>
+  <si>
+    <t>Israr Ghani; Wan Mohd Nasir Wan Kadir; Adila Firdaus Arbain; Imran Ghani</t>
+  </si>
+  <si>
+    <t>Regression testing is carried out to ensure that changes or enhancements are not impacting previous working software. Deciding how much retesting is required after modifications, bug fixes or before product deployments are difficult. Therefore, Test Case Selection (TCS) select the satisfactory subset of modified test cases from already executed test suites. The testing primary concerns in TCS for regression testing are efficiency (i.e., coverage, fault detection ability, redundancy) and time. The first challenge in TCS concerns the efficiency of multi-objective test case selection. The second challenge is to improve the execution time to detect the changes in a test suite, which makes it impractical to use these efficiency measures as a single goal for TCS. To overcome these challenges, there is a need to introduce an efficient detection-based multi-objective framework to improve the Time and efficiency of TCS. A multi-objective advanced and efficient regression test case selection (ARTeCS) framework is devised to improve the time performance and efficiency of a given TCS objective relative to the other TCS approaches. An algorithm to detect the changes in test cases using multiple TCS objectives. This comparison found that the enhanced ARTeCS algorithm improves redundancy efficiency by 44.02%. The selection technique showed ARTeCS improved the modified change detection by 43.00%, whereas the Hybrid Whale Optimization Algorithm (HWOA) stated 23% and ACO showed 33% only for selected test cases. Regarding average for fault detection, ACO scores 21%, HWOA scores 11%, and ARTeCS scores 31.08% with total execution times of 12, 21 and 09 seconds, respectively. In conclusion, the multiple-objective ARTeCS framework with four test suite selection parameters is more efficient than the existing multi-objective selection framework.</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
   </si>
 </sst>
 </file>
@@ -3659,10 +3692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO142"/>
+  <dimension ref="A1:AO145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z124" workbookViewId="0">
-      <selection activeCell="AF146" sqref="AF146"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9105,6 +9138,63 @@
         <v>1079</v>
       </c>
       <c r="AN142" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="143" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F143">
+        <v>2022</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AN143" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="144" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F144">
+        <v>2025</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AN144" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="145" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F145">
+        <v>2024</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AN145" t="s">
         <v>953</v>
       </c>
     </row>

--- a/5_Snowballing/Forward_Snowballing_2.xlsx
+++ b/5_Snowballing/Forward_Snowballing_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE9D0C2-1B85-D845-96AB-F657ACF48879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670418B1-AF9C-D448-8795-28C0169CF5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28100" yWindow="5460" windowWidth="23960" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1624,7 +1624,7 @@
         <v>153</v>
       </c>
       <c r="AN29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.2">
@@ -1747,4 +1747,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B6889C2593FACB4192549183B8B19287" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8f919e2780f892880bff7efb43d3db1d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" xmlns:ns3="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ca4d89da73e1329ebe7ff2e4ed471c6" ns2:_="" ns3:_="">
+    <xsd:import namespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <xsd:import namespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="75195dc1-fe89-472b-8717-1a0640488213" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9d5b2749-c0c4-4483-901e-60ca1fd7f0c8}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5022365E-0434-4066-A2EB-65FA2E019070}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A857AC-EA51-4A6E-877D-82FA4BA592B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B42A7143-76C2-4F1A-B6FD-E06D8AAB1C14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>